--- a/biology/Botanique/Engenho/Engenho.xlsx
+++ b/biology/Botanique/Engenho/Engenho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le Brésil de l'époque coloniale, un engenho était un dispositif destiné à la fabrication du sucre, regroupant la presse (moenda en portugais), la « maison des chaudières » (casa das caldeiras) et la « maison de purification » (casa de purgar). 
 L'ensemble, nommé engenho-bangüê, finit par être désigné sous l'appellation générale d'engenho, regroupant à la fois les plantations, les locaux des productions (casa-de-engenho), la résidence du propriétaire (casa-grande) et les habitations des esclaves (senzala), soit l'ensemble de la propriété.
@@ -512,7 +524,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier engenho construit au Brésil fut installé en 1533 dans la capitainerie de São Vicente, par Martim Afonso de Sousa. Il fut nommé engenho São Jorge. 
 </t>
@@ -543,7 +557,9 @@
           <t>Étapes traditionnelles de production de sucre dans un engenho</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La première étape, commune à tous les engenhos, est la pression mécanique des tiges de canne à sucre, permettant l'extraction du jus de canne, le vesou (caldo de cana ou garapa en portugais). Ce jus est ensuite conduit dans des réservoirs où il est stocké en attendant les étapes suivantes.
 En ce qui concerne la production de cachaça, ou d'alcool en général, le vesou reste stocké en attendant sa fermentation. Il sera ensuite distillé.
